--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H2">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N2">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q2">
-        <v>6.934880798206665</v>
+        <v>27.48981987921911</v>
       </c>
       <c r="R2">
-        <v>62.41392718385998</v>
+        <v>247.408378912972</v>
       </c>
       <c r="S2">
-        <v>0.02764960514615668</v>
+        <v>0.100991840131478</v>
       </c>
       <c r="T2">
-        <v>0.02764960514615669</v>
+        <v>0.100991840131478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H3">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q3">
-        <v>6.044906227911111</v>
+        <v>20.84151155388444</v>
       </c>
       <c r="R3">
-        <v>54.4041560512</v>
+        <v>187.57360398496</v>
       </c>
       <c r="S3">
-        <v>0.024101246324307</v>
+        <v>0.07656734791992532</v>
       </c>
       <c r="T3">
-        <v>0.02410124632430701</v>
+        <v>0.0765673479199253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H4">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N4">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q4">
-        <v>4.396817448104445</v>
+        <v>16.39607504668944</v>
       </c>
       <c r="R4">
-        <v>39.57135703294</v>
+        <v>147.564675420205</v>
       </c>
       <c r="S4">
-        <v>0.01753026041503954</v>
+        <v>0.060235745347707</v>
       </c>
       <c r="T4">
-        <v>0.01753026041503955</v>
+        <v>0.06023574534770699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H5">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N5">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q5">
-        <v>6.033681567202222</v>
+        <v>9.880451416695109</v>
       </c>
       <c r="R5">
-        <v>54.30313410481999</v>
+        <v>88.92406275025598</v>
       </c>
       <c r="S5">
-        <v>0.02405649322104088</v>
+        <v>0.03629870891427801</v>
       </c>
       <c r="T5">
-        <v>0.02405649322104089</v>
+        <v>0.03629870891427801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H6">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N6">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q6">
-        <v>3.806379978362223</v>
+        <v>16.489109187873</v>
       </c>
       <c r="R6">
-        <v>34.25741980526</v>
+        <v>148.401982690857</v>
       </c>
       <c r="S6">
-        <v>0.01517616618084738</v>
+        <v>0.06057753329518938</v>
       </c>
       <c r="T6">
-        <v>0.01517616618084738</v>
+        <v>0.06057753329518938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H7">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N7">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q7">
-        <v>4.866614597113333</v>
+        <v>14.68254228007955</v>
       </c>
       <c r="R7">
-        <v>43.79953137402</v>
+        <v>132.142880520716</v>
       </c>
       <c r="S7">
-        <v>0.01940335759534651</v>
+        <v>0.05394058488518486</v>
       </c>
       <c r="T7">
-        <v>0.01940335759534653</v>
+        <v>0.05394058488518485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J8">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N8">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O8">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P8">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q8">
-        <v>11.31702149404167</v>
+        <v>13.01144077394444</v>
       </c>
       <c r="R8">
-        <v>101.853193446375</v>
+        <v>117.1029669655</v>
       </c>
       <c r="S8">
-        <v>0.04512134885169734</v>
+        <v>0.0478013079858608</v>
       </c>
       <c r="T8">
-        <v>0.04512134885169735</v>
+        <v>0.04780130798586079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J9">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P9">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q9">
         <v>9.864673337777779</v>
@@ -1013,10 +1013,10 @@
         <v>88.78206004</v>
       </c>
       <c r="S9">
-        <v>0.0393307874528872</v>
+        <v>0.03624074355726215</v>
       </c>
       <c r="T9">
-        <v>0.03933078745288721</v>
+        <v>0.03624074355726213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J10">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N10">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q10">
-        <v>7.175159748736113</v>
+        <v>7.760565923402779</v>
       </c>
       <c r="R10">
-        <v>64.576437738625</v>
+        <v>69.845093310625</v>
       </c>
       <c r="S10">
-        <v>0.02860760547815808</v>
+        <v>0.02851069364985425</v>
       </c>
       <c r="T10">
-        <v>0.02860760547815809</v>
+        <v>0.02851069364985424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J11">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N11">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q11">
-        <v>9.846355830930557</v>
+        <v>4.676600610444445</v>
       </c>
       <c r="R11">
-        <v>88.61720247837501</v>
+        <v>42.089405494</v>
       </c>
       <c r="S11">
-        <v>0.03925775493130172</v>
+        <v>0.01718085106719128</v>
       </c>
       <c r="T11">
-        <v>0.03925775493130174</v>
+        <v>0.01718085106719127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J12">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N12">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q12">
-        <v>6.211625734180558</v>
+        <v>7.804600705125</v>
       </c>
       <c r="R12">
-        <v>55.90463160762501</v>
+        <v>70.241406346125</v>
       </c>
       <c r="S12">
-        <v>0.02476596265507717</v>
+        <v>0.02867246821423679</v>
       </c>
       <c r="T12">
-        <v>0.02476596265507717</v>
+        <v>0.02867246821423678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J13">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N13">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O13">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P13">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q13">
-        <v>7.941821006208334</v>
+        <v>6.949519135722223</v>
       </c>
       <c r="R13">
-        <v>71.47638905587502</v>
+        <v>62.54567222150001</v>
       </c>
       <c r="S13">
-        <v>0.03166430993592534</v>
+        <v>0.02553107763634582</v>
       </c>
       <c r="T13">
-        <v>0.03166430993592535</v>
+        <v>0.02553107763634582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H14">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N14">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O14">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P14">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q14">
-        <v>6.602630230123666</v>
+        <v>9.541019719647554</v>
       </c>
       <c r="R14">
-        <v>59.423672071113</v>
+        <v>85.86917747682799</v>
       </c>
       <c r="S14">
-        <v>0.02632491085300361</v>
+        <v>0.03505170795776404</v>
       </c>
       <c r="T14">
-        <v>0.02632491085300362</v>
+        <v>0.03505170795776404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H15">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>83.72704</v>
       </c>
       <c r="O15">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P15">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q15">
-        <v>5.755294396551111</v>
+        <v>7.233560408782222</v>
       </c>
       <c r="R15">
-        <v>51.79764956896</v>
+        <v>65.10204367903999</v>
       </c>
       <c r="S15">
-        <v>0.0229465541218354</v>
+        <v>0.02657458577738322</v>
       </c>
       <c r="T15">
-        <v>0.0229465541218354</v>
+        <v>0.02657458577738321</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H16">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N16">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q16">
-        <v>4.186165652147444</v>
+        <v>5.690662071727222</v>
       </c>
       <c r="R16">
-        <v>37.67549086932701</v>
+        <v>51.215958645545</v>
       </c>
       <c r="S16">
-        <v>0.01669038455400874</v>
+        <v>0.02090630046741749</v>
       </c>
       <c r="T16">
-        <v>0.01669038455400874</v>
+        <v>0.02090630046741748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H17">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N17">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q17">
-        <v>5.744607510031222</v>
+        <v>3.429254255571555</v>
       </c>
       <c r="R17">
-        <v>51.701467590281</v>
+        <v>30.863288300144</v>
       </c>
       <c r="S17">
-        <v>0.0229039451425155</v>
+        <v>0.01259836183250798</v>
       </c>
       <c r="T17">
-        <v>0.02290394514251551</v>
+        <v>0.01259836183250797</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H18">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N18">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q18">
-        <v>3.624016078109223</v>
+        <v>5.722951864076999</v>
       </c>
       <c r="R18">
-        <v>32.61614470298301</v>
+        <v>51.506566776693</v>
       </c>
       <c r="S18">
-        <v>0.01444907512021769</v>
+        <v>0.02102492640098835</v>
       </c>
       <c r="T18">
-        <v>0.01444907512021769</v>
+        <v>0.02102492640098835</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H19">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N19">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O19">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P19">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q19">
-        <v>4.633454790682333</v>
+        <v>5.095938279853777</v>
       </c>
       <c r="R19">
-        <v>41.701093116141</v>
+        <v>45.863444518684</v>
       </c>
       <c r="S19">
-        <v>0.01847374153252413</v>
+        <v>0.01872140982880427</v>
       </c>
       <c r="T19">
-        <v>0.01847374153252414</v>
+        <v>0.01872140982880427</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H20">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N20">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O20">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P20">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q20">
-        <v>17.12970414627733</v>
+        <v>3.07617884694</v>
       </c>
       <c r="R20">
-        <v>154.167337316496</v>
+        <v>27.68560962246</v>
       </c>
       <c r="S20">
-        <v>0.06829671189698458</v>
+        <v>0.01130123673748945</v>
       </c>
       <c r="T20">
-        <v>0.06829671189698461</v>
+        <v>0.01130123673748944</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H21">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>83.72704</v>
       </c>
       <c r="O21">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P21">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q21">
-        <v>14.93139655736889</v>
+        <v>2.3322166992</v>
       </c>
       <c r="R21">
-        <v>134.38256901632</v>
+        <v>20.9899502928</v>
       </c>
       <c r="S21">
-        <v>0.05953198491871608</v>
+        <v>0.008568075639361388</v>
       </c>
       <c r="T21">
-        <v>0.0595319849187161</v>
+        <v>0.008568075639361386</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H22">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N22">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O22">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P22">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q22">
-        <v>10.86048690133156</v>
+        <v>1.834761357225</v>
       </c>
       <c r="R22">
-        <v>97.74438211198401</v>
+        <v>16.512852215025</v>
       </c>
       <c r="S22">
-        <v>0.04330112993354949</v>
+        <v>0.006740528911517349</v>
       </c>
       <c r="T22">
-        <v>0.0433011299335495</v>
+        <v>0.006740528911517348</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H23">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N23">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O23">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P23">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q23">
-        <v>14.90367075750578</v>
+        <v>1.10564695512</v>
       </c>
       <c r="R23">
-        <v>134.133036817552</v>
+        <v>9.95082259608</v>
       </c>
       <c r="S23">
-        <v>0.05942144121351287</v>
+        <v>0.004061915320796433</v>
       </c>
       <c r="T23">
-        <v>0.05942144121351289</v>
+        <v>0.004061915320796431</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H24">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N24">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O24">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P24">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q24">
-        <v>9.40205964528178</v>
+        <v>1.845172107765</v>
       </c>
       <c r="R24">
-        <v>84.61853680753602</v>
+        <v>16.606548969885</v>
       </c>
       <c r="S24">
-        <v>0.03748633095753869</v>
+        <v>0.006778775828332514</v>
       </c>
       <c r="T24">
-        <v>0.0374863309575387</v>
+        <v>0.006778775828332513</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H25">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N25">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O25">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P25">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q25">
-        <v>12.02092302207467</v>
+        <v>1.64301280182</v>
       </c>
       <c r="R25">
-        <v>108.188307198672</v>
+        <v>14.78711521638</v>
       </c>
       <c r="S25">
-        <v>0.04792782813781884</v>
+        <v>0.006036084883219346</v>
       </c>
       <c r="T25">
-        <v>0.04792782813781885</v>
+        <v>0.006036084883219345</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H26">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I26">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J26">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N26">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O26">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P26">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q26">
-        <v>6.272097960247</v>
+        <v>4.845943392449332</v>
       </c>
       <c r="R26">
-        <v>56.448881642223</v>
+        <v>43.61349053204399</v>
       </c>
       <c r="S26">
-        <v>0.02500706747312662</v>
+        <v>0.01780298097720156</v>
       </c>
       <c r="T26">
-        <v>0.02500706747312663</v>
+        <v>0.01780298097720155</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H27">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I27">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J27">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>83.72704</v>
       </c>
       <c r="O27">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P27">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q27">
-        <v>5.467180348906667</v>
+        <v>3.673970424213333</v>
       </c>
       <c r="R27">
-        <v>49.20462314016001</v>
+        <v>33.06573381792</v>
       </c>
       <c r="S27">
-        <v>0.0217978336338798</v>
+        <v>0.0134973977770738</v>
       </c>
       <c r="T27">
-        <v>0.02179783363387981</v>
+        <v>0.0134973977770738</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H28">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I28">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J28">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N28">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O28">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P28">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q28">
-        <v>3.976603282779667</v>
+        <v>2.890322740698333</v>
       </c>
       <c r="R28">
-        <v>35.78942954501701</v>
+        <v>26.012904666285</v>
       </c>
       <c r="S28">
-        <v>0.01585485227376962</v>
+        <v>0.01061844033316646</v>
       </c>
       <c r="T28">
-        <v>0.01585485227376963</v>
+        <v>0.01061844033316646</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H29">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I29">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J29">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N29">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O29">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P29">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q29">
-        <v>5.457028455372334</v>
+        <v>1.741739613701333</v>
       </c>
       <c r="R29">
-        <v>49.113256098351</v>
+        <v>15.675656523312</v>
       </c>
       <c r="S29">
-        <v>0.02175735768975359</v>
+        <v>0.006398786510440534</v>
       </c>
       <c r="T29">
-        <v>0.0217573576897536</v>
+        <v>0.006398786510440531</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H30">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I30">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J30">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N30">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O30">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P30">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q30">
-        <v>3.442595308110334</v>
+        <v>2.906722927520999</v>
       </c>
       <c r="R30">
-        <v>30.98335777299301</v>
+        <v>26.160506347689</v>
       </c>
       <c r="S30">
-        <v>0.01372574435192559</v>
+        <v>0.01067869118431784</v>
       </c>
       <c r="T30">
-        <v>0.01372574435192559</v>
+        <v>0.01067869118431784</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H31">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I31">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J31">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N31">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O31">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P31">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q31">
-        <v>4.401500815379</v>
+        <v>2.588258819414666</v>
       </c>
       <c r="R31">
-        <v>39.61350733841101</v>
+        <v>23.294329374732</v>
       </c>
       <c r="S31">
-        <v>0.01754893315933954</v>
+        <v>0.009508720757636306</v>
       </c>
       <c r="T31">
-        <v>0.01754893315933955</v>
+        <v>0.009508720757636304</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H32">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N32">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O32">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P32">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q32">
-        <v>5.957521316572</v>
+        <v>12.77411503917244</v>
       </c>
       <c r="R32">
-        <v>53.617691849148</v>
+        <v>114.967035352552</v>
       </c>
       <c r="S32">
-        <v>0.02375283971652751</v>
+        <v>0.04692942294730883</v>
       </c>
       <c r="T32">
-        <v>0.02375283971652752</v>
+        <v>0.04692942294730883</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H33">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>83.72704</v>
       </c>
       <c r="O33">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P33">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q33">
-        <v>5.192974292906667</v>
+        <v>9.684743928817777</v>
       </c>
       <c r="R33">
-        <v>46.73676863616</v>
+        <v>87.16269535936</v>
       </c>
       <c r="S33">
-        <v>0.02070456478071573</v>
+        <v>0.0355797205973272</v>
       </c>
       <c r="T33">
-        <v>0.02070456478071574</v>
+        <v>0.0355797205973272</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H34">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N34">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O34">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P34">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q34">
-        <v>3.777157017454667</v>
+        <v>7.619014957447778</v>
       </c>
       <c r="R34">
-        <v>33.994413157092</v>
+        <v>68.57113461703</v>
       </c>
       <c r="S34">
-        <v>0.01505965324373901</v>
+        <v>0.0279906650506494</v>
       </c>
       <c r="T34">
-        <v>0.01505965324373901</v>
+        <v>0.0279906650506494</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H35">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N35">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O35">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P35">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q35">
-        <v>5.183331566897333</v>
+        <v>4.591300473788444</v>
       </c>
       <c r="R35">
-        <v>46.649984102076</v>
+        <v>41.321704264096</v>
       </c>
       <c r="S35">
-        <v>0.02066611890479533</v>
+        <v>0.01686747623235403</v>
       </c>
       <c r="T35">
-        <v>0.02066611890479533</v>
+        <v>0.01686747623235402</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H36">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N36">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O36">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P36">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q36">
-        <v>3.269932176185334</v>
+        <v>7.662246554717999</v>
       </c>
       <c r="R36">
-        <v>29.42938958566801</v>
+        <v>68.96021899246199</v>
       </c>
       <c r="S36">
-        <v>0.01303733058391107</v>
+        <v>0.02814948888359286</v>
       </c>
       <c r="T36">
-        <v>0.01303733058391107</v>
+        <v>0.02814948888359285</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H37">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N37">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O37">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P37">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q37">
-        <v>4.180743843404001</v>
+        <v>6.822761479606222</v>
       </c>
       <c r="R37">
-        <v>37.62669459063601</v>
+        <v>61.40485331645601</v>
       </c>
       <c r="S37">
-        <v>0.01666876761850597</v>
+        <v>0.02506539655883592</v>
       </c>
       <c r="T37">
-        <v>0.01666876761850598</v>
+        <v>0.02506539655883591</v>
       </c>
     </row>
   </sheetData>
